--- a/biology/Botanique/Aubépine_ergot-de-coq/Aubépine_ergot-de-coq.xlsx
+++ b/biology/Botanique/Aubépine_ergot-de-coq/Aubépine_ergot-de-coq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_ergot-de-coq</t>
+          <t>Aubépine_ergot-de-coq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crataegus crus-galli
 L'aubépine ergot de Coq (Crataegus crus-galli), appelée aussi "aubépine de Virginie", est une espèce de plantes à fleurs de la famille des Rosaceae. C'est une aubépine originaire de l'Est de l'Amérique du Nord, du Québec à la Louisiane.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_ergot-de-coq</t>
+          <t>Aubépine_ergot-de-coq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste ou un arbre de 5 à 10 m de haut[1] à couronne dense.
-Ses feuilles, caduques, sont simples et ont une disposition alterne. De forme oblancéolée, elles sont portées par un pétiole présentant à sa base deux stipules dentées. Elles mesurent de 3 à 5 cm de long[1] et sont, à maturité, glabres et luisantes sur la face supérieure. Elles ont une bordure dentelée et ont de belles couleurs automnales.
-Les bourgeons, d'un brun rougeâtre luisant, sont recouverts de 5 à 10 écailles. Les bourgeons axillaires sont légèrement plus petits que les bourgeons terminaux, et contrairement à ces derniers, ils se présentent assez souvent par groupe de 2 ou 3, avec un d'entre eux qui pourra donner une épine[1].
-Les rameaux sont de deux sortes : soit de longues pousses portant feuilles et épines, ces dernières étant courbes, lisses et luisantes, dures et acérées, longues de 5 à 7 cm environ[1], soit des pousses courtes pouvant porter feuilles et fleurs (puis fruits). Ces rameaux ont une couleur variable, grise ou brun-orangé. Certaines variétés ne portent pas d’épines.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou un arbre de 5 à 10 m de haut à couronne dense.
+Ses feuilles, caduques, sont simples et ont une disposition alterne. De forme oblancéolée, elles sont portées par un pétiole présentant à sa base deux stipules dentées. Elles mesurent de 3 à 5 cm de long et sont, à maturité, glabres et luisantes sur la face supérieure. Elles ont une bordure dentelée et ont de belles couleurs automnales.
+Les bourgeons, d'un brun rougeâtre luisant, sont recouverts de 5 à 10 écailles. Les bourgeons axillaires sont légèrement plus petits que les bourgeons terminaux, et contrairement à ces derniers, ils se présentent assez souvent par groupe de 2 ou 3, avec un d'entre eux qui pourra donner une épine.
+Les rameaux sont de deux sortes : soit de longues pousses portant feuilles et épines, ces dernières étant courbes, lisses et luisantes, dures et acérées, longues de 5 à 7 cm environ, soit des pousses courtes pouvant porter feuilles et fleurs (puis fruits). Ces rameaux ont une couleur variable, grise ou brun-orangé. Certaines variétés ne portent pas d’épines.
 Le bois est dur et peut être utilisé pour la sculpture ou le travail au tour à bois.
-Appareil reproducteur
-Ses fleurs hermaphrodites apparaissent à la fin du printemps, en même temps que les feuilles. Elles mesurent 2 cm de diamètre[réf. nécessaire] et ont généralement une forte odeur de poisson pourri pendant 1 à 2 semaines vers la fin mai. Les inflorescences sont des grappes aplaties qui se forment à l’extrémité des pousses courtes. Les fleurs sont blanches ou rosées et chacune présente 5 sépales verdâtres, 5 pétales blancs ou parfois rosés, de 5 à 25 étamines et de 1 à 5 pistils[1].
-Les fruits sont des baies rondes à ovales, appelées cenelles. Elles sont disposées en grappes et sont comestibles. Elles ressemblent à de petites pommes peu charnues, rouge brillant, de 0,6 à 1 cm de diamètre[1]. Elles arrivent à maturité en août puis restent longtemps sur l'arbre, même au cours de l'hiver.
-Leur chair orangé est tendre, sucrée et acidulée ; elle contient entre 1 et 5 pépins durs[1].
 </t>
         </is>
       </c>
@@ -534,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_ergot-de-coq</t>
+          <t>Aubépine_ergot-de-coq</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +562,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fleurs hermaphrodites apparaissent à la fin du printemps, en même temps que les feuilles. Elles mesurent 2 cm de diamètre[réf. nécessaire] et ont généralement une forte odeur de poisson pourri pendant 1 à 2 semaines vers la fin mai. Les inflorescences sont des grappes aplaties qui se forment à l’extrémité des pousses courtes. Les fleurs sont blanches ou rosées et chacune présente 5 sépales verdâtres, 5 pétales blancs ou parfois rosés, de 5 à 25 étamines et de 1 à 5 pistils.
+Les fruits sont des baies rondes à ovales, appelées cenelles. Elles sont disposées en grappes et sont comestibles. Elles ressemblent à de petites pommes peu charnues, rouge brillant, de 0,6 à 1 cm de diamètre. Elles arrivent à maturité en août puis restent longtemps sur l'arbre, même au cours de l'hiver.
+Leur chair orangé est tendre, sucrée et acidulée ; elle contient entre 1 et 5 pépins durs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aubépine_ergot-de-coq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aub%C3%A9pine_ergot-de-coq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette aubépine est originaire de l'Est de l'Amérique du Nord, du Québec à la Louisiane.
 Elle préfère les sols riches en calcium et les sites bien exposés à la lumière. On la trouve par exemple dans des friches, sur le bord de cours d’eau ou dans des clairières.
@@ -560,44 +614,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aub%C3%A9pine_ergot-de-coq</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aub%C3%A9pine_ergot-de-coq</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Taxinomie et systématique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été scientifiquement décrite pour la première fois en 1753 par le naturaliste suédois Carl von Linné dans son ouvrage Species Plantarum[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_ergot-de-coq</t>
+          <t>Aubépine_ergot-de-coq</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,47 +635,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxinomie et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été scientifiquement décrite pour la première fois en 1753 par le naturaliste suédois Carl von Linné dans son ouvrage Species Plantarum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aubépine_ergot-de-coq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aub%C3%A9pine_ergot-de-coq</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette aubépine peut être cultivée jusqu'en zone USDA 4 et a une croissance lente à modérée.
 L'espèce supporte mal les transplantations[réf. nécessaire].
 Sensible au puceron, oïdium et feu bactérien[réf. nécessaire].
-Cette espèce est un arbre ornemental populaire, en particulier la variété inermis, sans épines. De nombreuses autres formes sauvages conviendraient très bien à l'aménagement paysager si elles étaient mieux connues. Il existe en particulier une forme à fruits jaunes[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aub%C3%A9pine_ergot-de-coq</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aub%C3%A9pine_ergot-de-coq</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit est comestible et peut être transformé en gelée ou écrasé pour élaborer des tisanes[4].
-L'espèce est utilisée en greffe intermédiaire pour la greffe de poire sur aubépine blanche[5].
+Cette espèce est un arbre ornemental populaire, en particulier la variété inermis, sans épines. De nombreuses autres formes sauvages conviendraient très bien à l'aménagement paysager si elles étaient mieux connues. Il existe en particulier une forme à fruits jaunes.
 </t>
         </is>
       </c>
@@ -663,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_ergot-de-coq</t>
+          <t>Aubépine_ergot-de-coq</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,10 +704,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est comestible et peut être transformé en gelée ou écrasé pour élaborer des tisanes.
+L'espèce est utilisée en greffe intermédiaire pour la greffe de poire sur aubépine blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aubépine_ergot-de-coq</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aub%C3%A9pine_ergot-de-coq</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Specimen en fleurs.
